--- a/data/long_razon/P25A_N-Edad-long_razon.xlsx
+++ b/data/long_razon/P25A_N-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.5524281878086592</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4080033767473726</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.546134692779933</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.37475780010194</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.07936854263809329</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.04977716680249484</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.6961372016889348</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1505990484380211</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.1220396024320082</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.1612499761779379</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>1.806617524665295</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>1.155925355071593</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,38 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.8771038129203365</v>
+      </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.4666189010567443</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5329215730711701</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2698185806146699</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.6956921190436639</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.523355154302341</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.5941373009848755</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.2457690988339763</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.04579200687885442</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +743,38 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.455470359005694</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.151747688031515</v>
+      </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>1.29899481683577</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.42557165120694</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>3.24935821484948</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.029757552389099</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.7813972668958421</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.4920957061310101</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>5.821068871352215</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>3.378685706198566</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +787,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.1887553925119592</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.668557547386965</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2311102961367889</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.342484388058625</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2680753163054909</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.05667357467246154</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>2.083187944031811</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>2.758077377676556</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.240443373855711</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.723955232524823</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>1.084477179683959</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1.534808725986871</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +831,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.7644945102800302</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.2588813806183902</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.5586573087919947</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.712351372300648</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.6443047732958983</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.4817133969698331</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.4825669266145824</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.7796709729887489</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.5745581135059921</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.06168759364622825</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.1224186091275897</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.3218764136322874</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +875,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.905209263065679</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.745686089454015</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.511866707259819</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.756833579771225</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3730992707391807</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6440274378952137</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>4.874603457036921</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>8.128509433514362</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.3826861836620416</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.807598904452399</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>2.78881164352046</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>4.670034793188568</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +923,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.3086984217589077</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.0995301670120205</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4451601605081996</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1976444720440129</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.3276412830241651</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.29911539568389</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.3822104042188697</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.7206347020542723</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.02815619588428619</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1434107238560154</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.4066007806380382</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.487364225034099</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +967,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.657833113042779</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5514722187308403</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3064829068966998</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.486767053515037</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.1602619866606469</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.1265498786115376</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.1102319533641719</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.01024404390431919</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3172768746620309</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2017509022626586</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.03562416035809345</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.003748478606448383</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1011,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.3556149362155171</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.7209555468974023</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.173401163128548</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.837931364514524</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.195046517627544</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.9828926122948328</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.281773783733547</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.891983036649161</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.5688207028304678</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.6140558051513484</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.143988963931029</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.366047009273662</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1059,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.7115067062575878</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4148374462429431</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7559930264792836</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.46076535892728</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.2546144560585003</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.4987411141787561</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.7981298022473267</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.9078183168649959</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.01140148872577255</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.4626761128444771</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.779149494951339</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.6993396212819445</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1103,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1251303991605262</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1329701950826642</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.01696349429411004</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2928188952424724</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.5207529408647581</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.03498842567129467</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.1987355179344106</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.2229029461387604</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3018776124984757</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.08997625949887501</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.2919500727705994</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.177067935980608</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1147,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>2.256479694984785</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.305441463168356</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.965791232048999</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.937024171994624</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.1208158639171874</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.161971964485534</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.649927371806637</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>2.176928290657472</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.4096714440206676</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.9710272910477746</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>1.395670388484479</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.585285175621203</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1195,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.04618473667864415</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.6744480386106076</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.2896060325879957</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.09011260163609291</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.143231908344284</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.2191726821961648</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.6548819781909127</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.7333761993058874</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.1070580796195805</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.09782674856691231</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.157298999891179</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.3172277917731582</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1239,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.4604958991929612</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.03623480427583615</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.6317120849575186</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.48854328900541</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.4576751833437945</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.4727471364904975</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.07997105345615203</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>0.1299013186334661</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3795950547004187</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.1878349230757247</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.1898786327479717</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.09451286224019428</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1283,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.7548864128738748</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.6583702475147</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.2770002410506698</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.6398687962158849</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.3029484937885895</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.1572188515766394</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.734886714736206</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.626491922905363</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.2435237800785239</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.4394874794653802</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.6772341199776801</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.8173265058123008</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1331,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>1.36368776678029</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.01187335625290575</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.614654731852123</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.4937488750595799</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.2365817757473119</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.6489231160655092</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.8319484317854248</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.22519979508648</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.07986501308114506</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.4006136953943102</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>1.078709966917532</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.302731559935376</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1375,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>0.1252351401528172</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.4038433463069111</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.120641687494679</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.3721809683327514</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.5241949028172873</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>0.1515714220795424</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.018858722204958</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.35563406217995</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.2719948997971056</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>0.02177859344415621</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>0.3214813207690191</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.1822207806044198</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1419,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>4.095257802167949</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.9114403205034184</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>5.295174738538577</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2.581454876599308</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.1822448162671777</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.570849011777694</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>2.127039095378417</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.244711980838981</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.5282336776265854</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.9700729985377985</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>2.145106750717735</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.153367981047094</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1467,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.1761634157800915</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3515014339862108</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.6234891310532139</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.522577062569398</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.1274840999997789</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.2591300140034224</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.7862352466401097</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.637603187823787</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.03169705993132124</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.2949118378329168</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.718084223356118</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.5915082220473268</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1511,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.1404586450084687</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0751702712095441</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1966296764770768</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1039469365414879</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.3012712850828904</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>0.03805410249159563</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.4124288137918937</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>0.3225153113701856</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.1964444444326979</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.1239717674442663</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.4626255698380315</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.2976941314327076</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1555,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.6218944379375243</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.7697478194263505</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.202522558138911</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.163099154759764</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.07547741667649933</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.5262324147435437</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>1.223386481019298</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>1.106360326285509</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.1694635733350627</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.5070506419203953</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>1.054131178248327</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.9631889047190878</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
